--- a/chude5_Excel/buoi11/de1.xlsx
+++ b/chude5_Excel/buoi11/de1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\chude5_Excel\buoi11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7C6B0B-5C9F-4276-961B-E13CC51648F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3218761-C8A6-4C1D-91E2-572000FE390D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BB919591-CE31-451E-8EBF-2FBCCD38A1F3}"/>
   </bookViews>
@@ -302,9 +302,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,6 +312,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,6 +330,266 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236AF239-AD91-322A-D84A-1CC7B2911CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="3629025"/>
+          <a:ext cx="7267575" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Yêu cầu tính:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>đ) Dựa vào kí tự thứ 2 và 3 của Mã HĐ, tra cứu trên Bảng giá, điền thông tin cho cột Tên hàng.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>đ) Điền thông tin cho cột Loại HĐ mua, biết rằng nếu kí tự cuối của Mã HĐ là S thì là Sỉ, còn L thì là Lẻ.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(1đ) Dựa vào tên hàng và Bảng giá, điền thông tin cho cột Đơn giá biết rằng nếu Loại HĐ mua là Sỉ thì lấy Giá Sỉ, còn là Lẻ thì lấy Giá lẻ.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5đ) Điền thông tin cho bảng Thống kê.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5đ) Định dạng cột thành tiền theo rule là Format all cells based on their values, với Format Style là 3-Color Scale, trong đó Minimum là giá trị thấp nhấp có màu vàng, Midpoint là Percentile giá trị là 50, Maximum là giá trị cao nhất.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5đ) Lọc ra danh sách các Loại HĐ mua là Sỉ.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8E3623-60FE-4F7C-87DE-B9BFBE970CAB}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,15 +907,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -789,48 +1049,48 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="10" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -924,5 +1184,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>